--- a/csv/sample_valid_bitstrings.xlsx
+++ b/csv/sample_valid_bitstrings.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanhsuanlin/Desktop/sqd/meeting-notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E6A85C-EEA0-E34C-9AA5-F5C6A26978F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5E1604-A130-C240-8C4A-8BDEB60B0BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36220" yWindow="-1800" windowWidth="30500" windowHeight="21240" activeTab="3" xr2:uid="{FEE29CD4-75DF-5244-B173-61F242A3C75A}"/>
+    <workbookView xWindow="-36220" yWindow="-1800" windowWidth="30500" windowHeight="21240" xr2:uid="{FEE29CD4-75DF-5244-B173-61F242A3C75A}"/>
   </bookViews>
   <sheets>
-    <sheet name="N2_6-31G-2.4" sheetId="5" r:id="rId1"/>
-    <sheet name="N2_6-31G-1.2" sheetId="3" r:id="rId2"/>
-    <sheet name="N2_cc-PVDZ-2.4" sheetId="4" r:id="rId3"/>
-    <sheet name="fe2s2" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId1"/>
+    <sheet name="N2_6-31G-2.4" sheetId="5" r:id="rId2"/>
+    <sheet name="N2_6-31G-1.2" sheetId="3" r:id="rId3"/>
+    <sheet name="N2_cc-PVDZ-1.2" sheetId="7" r:id="rId4"/>
+    <sheet name="N2_cc-PVDZ-2.4" sheetId="4" r:id="rId5"/>
+    <sheet name="fe2s2" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="28">
   <si>
     <t>Random</t>
   </si>
@@ -66,6 +68,63 @@
   </si>
   <si>
     <t>6-31G</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>gate count</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>2q</t>
+  </si>
+  <si>
+    <t>1q</t>
+  </si>
+  <si>
+    <t>circuit depth</t>
+  </si>
+  <si>
+    <t>#2Q gates</t>
+  </si>
+  <si>
+    <t>#1Q gates</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>Fe2S2, (30e,20o)</t>
+  </si>
+  <si>
+    <t>Circuit</t>
+  </si>
+  <si>
+    <t>N2. (10e16o), R=1.2A</t>
+  </si>
+  <si>
+    <t>N2. (10e16o), R=2.4A</t>
+  </si>
+  <si>
+    <t>N2, (10e,26o), R=1.2A</t>
+  </si>
+  <si>
+    <t>N2, (10e,26o), R=2.4A</t>
+  </si>
+  <si>
+    <t>#bitstring with correct partical number</t>
   </si>
 </sst>
 </file>
@@ -113,11 +172,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,11 +513,429 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76557B7F-CEE4-2749-AFD3-208594295BED}">
+  <dimension ref="A7:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>821</v>
+      </c>
+      <c r="D9">
+        <v>798</v>
+      </c>
+      <c r="E9">
+        <v>13212</v>
+      </c>
+      <c r="F9">
+        <f>'N2_6-31G-1.2'!N3</f>
+        <v>62594.3</v>
+      </c>
+      <c r="G9">
+        <f>'N2_6-31G-1.2'!Q3</f>
+        <v>3088.0939842491121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>773</v>
+      </c>
+      <c r="D10">
+        <v>740</v>
+      </c>
+      <c r="E10">
+        <v>12675</v>
+      </c>
+      <c r="F10">
+        <f>'N2_6-31G-1.2'!N4</f>
+        <v>25009</v>
+      </c>
+      <c r="G10">
+        <f>'N2_6-31G-1.2'!Q4</f>
+        <v>418.82374972455102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>821</v>
+      </c>
+      <c r="D11">
+        <v>798</v>
+      </c>
+      <c r="E11">
+        <v>13212</v>
+      </c>
+      <c r="F11">
+        <f>'N2_6-31G-1.2'!N5</f>
+        <v>30563.5</v>
+      </c>
+      <c r="G11">
+        <f>'N2_6-31G-1.2'!Q5</f>
+        <v>157.14766587158999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>821</v>
+      </c>
+      <c r="D12">
+        <v>798</v>
+      </c>
+      <c r="E12">
+        <v>13212</v>
+      </c>
+      <c r="F12">
+        <f>'N2_6-31G-2.4'!N3</f>
+        <v>67881.600000000006</v>
+      </c>
+      <c r="G12">
+        <f>'N2_6-31G-2.4'!Q3</f>
+        <v>8120.3260361474095</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>773</v>
+      </c>
+      <c r="D13">
+        <v>744</v>
+      </c>
+      <c r="E13">
+        <v>12747</v>
+      </c>
+      <c r="F13">
+        <f>'N2_6-31G-2.4'!N4</f>
+        <v>24977.1</v>
+      </c>
+      <c r="G13">
+        <f>'N2_6-31G-2.4'!Q4</f>
+        <v>406.63044920692084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>821</v>
+      </c>
+      <c r="D14">
+        <v>798</v>
+      </c>
+      <c r="E14">
+        <v>13212</v>
+      </c>
+      <c r="F14">
+        <f>'N2_6-31G-2.4'!N5</f>
+        <v>33022.400000000001</v>
+      </c>
+      <c r="G14">
+        <f>'N2_6-31G-2.4'!Q5</f>
+        <v>566.06874337152931</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1329</v>
+      </c>
+      <c r="D15">
+        <v>1933</v>
+      </c>
+      <c r="E15">
+        <v>32075</v>
+      </c>
+      <c r="F15">
+        <f>'N2_cc-PVDZ-1.2'!N3</f>
+        <v>154</v>
+      </c>
+      <c r="G15">
+        <f>'N2_cc-PVDZ-1.2'!Q3</f>
+        <v>13.012814197295423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1227</v>
+      </c>
+      <c r="D16">
+        <v>1764</v>
+      </c>
+      <c r="E16">
+        <v>31127</v>
+      </c>
+      <c r="F16">
+        <f>'N2_cc-PVDZ-1.2'!N4</f>
+        <v>61.6</v>
+      </c>
+      <c r="G16">
+        <f>'N2_cc-PVDZ-1.2'!Q4</f>
+        <v>6.7856056799997306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1329</v>
+      </c>
+      <c r="D17">
+        <v>1933</v>
+      </c>
+      <c r="E17">
+        <v>32075</v>
+      </c>
+      <c r="F17">
+        <f>'N2_cc-PVDZ-1.2'!N5</f>
+        <v>81.5</v>
+      </c>
+      <c r="G17">
+        <f>'N2_cc-PVDZ-1.2'!Q5</f>
+        <v>12.429802894656053</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1329</v>
+      </c>
+      <c r="D18">
+        <v>1933</v>
+      </c>
+      <c r="E18">
+        <v>32075</v>
+      </c>
+      <c r="F18">
+        <f>'N2_cc-PVDZ-2.4'!N3</f>
+        <v>154</v>
+      </c>
+      <c r="G18">
+        <f>'N2_cc-PVDZ-2.4'!Q3</f>
+        <v>13.012814197295423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1227</v>
+      </c>
+      <c r="D19">
+        <v>1732</v>
+      </c>
+      <c r="E19">
+        <v>30551</v>
+      </c>
+      <c r="F19">
+        <f>'N2_cc-PVDZ-2.4'!N4</f>
+        <v>80.599999999999994</v>
+      </c>
+      <c r="G19">
+        <f>'N2_cc-PVDZ-2.4'!Q4</f>
+        <v>5.1897334549409502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>1329</v>
+      </c>
+      <c r="D20">
+        <v>1933</v>
+      </c>
+      <c r="E20">
+        <v>32075</v>
+      </c>
+      <c r="F20">
+        <f>'N2_cc-PVDZ-2.4'!N5</f>
+        <v>81.7</v>
+      </c>
+      <c r="G20">
+        <f>'N2_cc-PVDZ-2.4'!Q5</f>
+        <v>12.184233892845139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1199</v>
+      </c>
+      <c r="D21">
+        <v>1290</v>
+      </c>
+      <c r="E21">
+        <v>20083</v>
+      </c>
+      <c r="F21">
+        <f>fe2s2!N3</f>
+        <v>18093</v>
+      </c>
+      <c r="G21">
+        <f>fe2s2!Q3</f>
+        <v>1535.2183340923641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>967</v>
+      </c>
+      <c r="D22">
+        <v>1116</v>
+      </c>
+      <c r="E22">
+        <v>19471</v>
+      </c>
+      <c r="F22">
+        <f>fe2s2!N4</f>
+        <v>15098.8</v>
+      </c>
+      <c r="G22">
+        <f>fe2s2!Q4</f>
+        <v>1278.158814684449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1199</v>
+      </c>
+      <c r="D23">
+        <v>1290</v>
+      </c>
+      <c r="E23">
+        <v>20083</v>
+      </c>
+      <c r="F23">
+        <f>fe2s2!N5</f>
+        <v>14061.8</v>
+      </c>
+      <c r="G23">
+        <f>fe2s2!Q5</f>
+        <v>1494.8980492922476</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA42ED78-9456-F54A-A97D-593A8F76F400}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="J1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -463,7 +943,7 @@
     <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -482,7 +962,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -516,8 +996,20 @@
       <c r="K2" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -551,8 +1043,27 @@
       <c r="K3" s="1">
         <v>63644</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>AVERAGE(B3:K3)</f>
+        <v>67881.600000000006</v>
+      </c>
+      <c r="O3">
+        <f>MIN(B3:K3)</f>
+        <v>57500</v>
+      </c>
+      <c r="P3">
+        <f>MAX(B3:K3)</f>
+        <v>84169</v>
+      </c>
+      <c r="Q3">
+        <f>_xlfn.STDEV.S(B3:K3)</f>
+        <v>8120.3260361474095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -586,8 +1097,27 @@
       <c r="K4" s="1">
         <v>24960</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N5" si="0">AVERAGE(B4:K4)</f>
+        <v>24977.1</v>
+      </c>
+      <c r="O4">
+        <f>MIN(B4:K4)</f>
+        <v>24208</v>
+      </c>
+      <c r="P4">
+        <f>MAX(B4:K4)</f>
+        <v>25684</v>
+      </c>
+      <c r="Q4">
+        <f>_xlfn.STDEV.S(B4:K4)</f>
+        <v>406.63044920692084</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -621,8 +1151,27 @@
       <c r="K5" s="1">
         <v>33048</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>33022.400000000001</v>
+      </c>
+      <c r="O5">
+        <f>MIN(B5:K5)</f>
+        <v>32085</v>
+      </c>
+      <c r="P5">
+        <f>MAX(B5:K5)</f>
+        <v>34021</v>
+      </c>
+      <c r="Q5">
+        <f>_xlfn.STDEV.S(B5:K5)</f>
+        <v>566.06874337152931</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -630,7 +1179,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -640,7 +1189,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -674,8 +1223,20 @@
       <c r="K8" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -709,8 +1270,27 @@
       <c r="K9" s="1">
         <v>55621</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>AVERAGE(B9:K9)</f>
+        <v>50772.6</v>
+      </c>
+      <c r="O9">
+        <f>MIN(B9:K9)</f>
+        <v>24736</v>
+      </c>
+      <c r="P9">
+        <f>MAX(B9:K9)</f>
+        <v>65759</v>
+      </c>
+      <c r="Q9">
+        <f>_xlfn.STDEV.S(B9:K9)</f>
+        <v>14481.770296939994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -744,8 +1324,27 @@
       <c r="K10" s="1">
         <v>31164</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10:N11" si="1">AVERAGE(B10:K10)</f>
+        <v>29488.400000000001</v>
+      </c>
+      <c r="O10">
+        <f>MIN(B10:K10)</f>
+        <v>22252</v>
+      </c>
+      <c r="P10">
+        <f>MAX(B10:K10)</f>
+        <v>31975</v>
+      </c>
+      <c r="Q10">
+        <f>_xlfn.STDEV.S(B10:K10)</f>
+        <v>3867.8560584500615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -778,6 +1377,140 @@
       </c>
       <c r="K11" s="1">
         <v>32976</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>32208.9</v>
+      </c>
+      <c r="O11">
+        <f>MIN(B11:K11)</f>
+        <v>27284</v>
+      </c>
+      <c r="P11">
+        <f>MAX(B11:K11)</f>
+        <v>33769</v>
+      </c>
+      <c r="Q11">
+        <f>_xlfn.STDEV.S(B11:K11)</f>
+        <v>2501.3073226259548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>821</v>
+      </c>
+      <c r="C17">
+        <v>798</v>
+      </c>
+      <c r="D17">
+        <v>13212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>773</v>
+      </c>
+      <c r="C18">
+        <v>744</v>
+      </c>
+      <c r="D18">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>821</v>
+      </c>
+      <c r="C19">
+        <v>798</v>
+      </c>
+      <c r="D19">
+        <v>13212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>371</v>
+      </c>
+      <c r="C23">
+        <v>764</v>
+      </c>
+      <c r="D23">
+        <v>6460</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>363</v>
+      </c>
+      <c r="C24">
+        <v>725</v>
+      </c>
+      <c r="D24">
+        <v>6298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>367</v>
+      </c>
+      <c r="C25">
+        <v>764</v>
+      </c>
+      <c r="D25">
+        <v>6460</v>
       </c>
     </row>
   </sheetData>
@@ -785,17 +1518,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67BCA20-3D99-3940-8C9C-28E3EBC4D82E}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -814,7 +1547,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -848,8 +1581,20 @@
       <c r="K2" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -883,8 +1628,27 @@
       <c r="K3" s="1">
         <v>63057</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>AVERAGE(B3:K3)</f>
+        <v>62594.3</v>
+      </c>
+      <c r="O3">
+        <f>MIN(B3:K3)</f>
+        <v>58290</v>
+      </c>
+      <c r="P3">
+        <f>MAX(B3:K3)</f>
+        <v>67857</v>
+      </c>
+      <c r="Q3">
+        <f>_xlfn.STDEV.S(B3:K3)</f>
+        <v>3088.0939842491121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -918,8 +1682,27 @@
       <c r="K4" s="1">
         <v>24907</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N5" si="0">AVERAGE(B4:K4)</f>
+        <v>25009</v>
+      </c>
+      <c r="O4">
+        <f>MIN(B4:K4)</f>
+        <v>24335</v>
+      </c>
+      <c r="P4">
+        <f>MAX(B4:K4)</f>
+        <v>25753</v>
+      </c>
+      <c r="Q4">
+        <f>_xlfn.STDEV.S(B4:K4)</f>
+        <v>418.82374972455102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -953,8 +1736,27 @@
       <c r="K5" s="1">
         <v>30476</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>30563.5</v>
+      </c>
+      <c r="O5">
+        <f>MIN(B5:K5)</f>
+        <v>30319</v>
+      </c>
+      <c r="P5">
+        <f>MAX(B5:K5)</f>
+        <v>30820</v>
+      </c>
+      <c r="Q5">
+        <f>_xlfn.STDEV.S(B5:K5)</f>
+        <v>157.14766587158999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -962,7 +1764,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -972,7 +1774,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1006,8 +1808,20 @@
       <c r="K8" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1041,8 +1855,27 @@
       <c r="K9" s="1">
         <v>24253</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>AVERAGE(B9:K9)</f>
+        <v>24343.4</v>
+      </c>
+      <c r="O9">
+        <f>MIN(B9:K9)</f>
+        <v>22138</v>
+      </c>
+      <c r="P9">
+        <f>MAX(B9:K9)</f>
+        <v>27792</v>
+      </c>
+      <c r="Q9">
+        <f>_xlfn.STDEV.S(B9:K9)</f>
+        <v>1796.7580805439557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -1076,8 +1909,27 @@
       <c r="K10" s="1">
         <v>19042</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10:N11" si="1">AVERAGE(B10:K10)</f>
+        <v>18998.7</v>
+      </c>
+      <c r="O10">
+        <f>MIN(B10:K10)</f>
+        <v>18257</v>
+      </c>
+      <c r="P10">
+        <f>MAX(B10:K10)</f>
+        <v>19830</v>
+      </c>
+      <c r="Q10">
+        <f>_xlfn.STDEV.S(B10:K10)</f>
+        <v>429.91938520817803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -1110,6 +1962,140 @@
       </c>
       <c r="K11" s="1">
         <v>23299</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>23649.599999999999</v>
+      </c>
+      <c r="O11">
+        <f>MIN(B11:K11)</f>
+        <v>23072</v>
+      </c>
+      <c r="P11">
+        <f>MAX(B11:K11)</f>
+        <v>24486</v>
+      </c>
+      <c r="Q11">
+        <f>_xlfn.STDEV.S(B11:K11)</f>
+        <v>447.76933545942796</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>821</v>
+      </c>
+      <c r="C18">
+        <v>798</v>
+      </c>
+      <c r="D18">
+        <v>13212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>773</v>
+      </c>
+      <c r="C19">
+        <v>740</v>
+      </c>
+      <c r="D19">
+        <v>12675</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>821</v>
+      </c>
+      <c r="C20">
+        <v>798</v>
+      </c>
+      <c r="D20">
+        <v>13212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>371</v>
+      </c>
+      <c r="C24">
+        <v>764</v>
+      </c>
+      <c r="D24">
+        <v>6460</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>363</v>
+      </c>
+      <c r="C25">
+        <v>721</v>
+      </c>
+      <c r="D25">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>367</v>
+      </c>
+      <c r="C26">
+        <v>764</v>
+      </c>
+      <c r="D26">
+        <v>6460</v>
       </c>
     </row>
   </sheetData>
@@ -1117,17 +2103,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6FB469-D3AE-2241-A03C-DCC70918E2E8}">
-  <dimension ref="A1:K11"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15EE7772-1931-2346-BAE0-1CE607C3A900}">
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B18" sqref="B18:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +2132,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1180,8 +2166,20 @@
       <c r="K2" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1215,43 +2213,82 @@
       <c r="K3" s="1">
         <v>162</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>AVERAGE(B3:K3)</f>
+        <v>154</v>
+      </c>
+      <c r="O3">
+        <f>MIN(B3:K3)</f>
+        <v>131</v>
+      </c>
+      <c r="P3">
+        <f>MAX(B3:K3)</f>
+        <v>177</v>
+      </c>
+      <c r="Q3">
+        <f>_xlfn.STDEV.S(B3:K3)</f>
+        <v>13.012814197295423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G4" s="1">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H4" s="1">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="I4" s="1">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="J4" s="1">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="K4" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f>AVERAGE(B4:L4)</f>
+        <v>61.6</v>
+      </c>
+      <c r="O4">
+        <f>MIN(B4:L4)</f>
+        <v>49</v>
+      </c>
+      <c r="P4">
+        <f>MAX(B4:L4)</f>
+        <v>68</v>
+      </c>
+      <c r="Q4">
+        <f>_xlfn.STDEV.S(B4:L4)</f>
+        <v>6.7856056799997306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1265,7 +2302,7 @@
         <v>99</v>
       </c>
       <c r="E5" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5" s="1">
         <v>86</v>
@@ -1285,8 +2322,27 @@
       <c r="K5" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N4:N5" si="0">AVERAGE(B5:K5)</f>
+        <v>81.5</v>
+      </c>
+      <c r="O5">
+        <f>MIN(B5:K5)</f>
+        <v>65</v>
+      </c>
+      <c r="P5">
+        <f>MAX(B5:K5)</f>
+        <v>99</v>
+      </c>
+      <c r="Q5">
+        <f>_xlfn.STDEV.S(B5:K5)</f>
+        <v>12.429802894656053</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1294,7 +2350,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1304,7 +2360,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1338,110 +2394,294 @@
       <c r="K8" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1">
+        <v>652</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1983</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2325</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2178</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2100</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2398</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2482</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2276</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2303</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>AVERAGE(B9:K9)</f>
+        <v>1873.9</v>
+      </c>
+      <c r="O9">
+        <f>MIN(B9:K9)</f>
+        <v>42</v>
+      </c>
+      <c r="P9">
+        <f>MAX(B9:K9)</f>
+        <v>2482</v>
+      </c>
+      <c r="Q9">
+        <f>_xlfn.STDEV.S(B9:K9)</f>
+        <v>829.8705990159616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1029</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1942</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2272</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1967</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1865</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2078</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2077</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1908</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2075</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10:N11" si="1">AVERAGE(B10:K10)</f>
+        <v>1724.5</v>
+      </c>
+      <c r="O10">
+        <f>MIN(B10:K10)</f>
+        <v>32</v>
+      </c>
+      <c r="P10">
+        <f>MAX(B10:K10)</f>
+        <v>2272</v>
+      </c>
+      <c r="Q10">
+        <f>_xlfn.STDEV.S(B10:K10)</f>
+        <v>681.47116185825826</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
         <v>52</v>
       </c>
-      <c r="C9" s="1">
-        <v>722</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2274</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2468</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2490</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2443</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2559</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2692</v>
-      </c>
-      <c r="J9" s="1">
-        <v>2653</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2487</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1">
-        <v>958</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2330</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2410</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2112</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2048</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1811</v>
-      </c>
-      <c r="I10" s="1">
-        <v>2140</v>
-      </c>
-      <c r="J10" s="1">
-        <v>2006</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1">
-        <v>54</v>
-      </c>
       <c r="C11" s="1">
-        <v>717</v>
+        <v>667</v>
       </c>
       <c r="D11" s="1">
-        <v>1956</v>
+        <v>2557</v>
       </c>
       <c r="E11" s="1">
-        <v>2294</v>
+        <v>2747</v>
       </c>
       <c r="F11" s="1">
-        <v>2130</v>
+        <v>2511</v>
       </c>
       <c r="G11" s="1">
-        <v>2128</v>
+        <v>2557</v>
       </c>
       <c r="H11" s="1">
-        <v>2166</v>
+        <v>2683</v>
       </c>
       <c r="I11" s="1">
-        <v>2328</v>
+        <v>2733</v>
       </c>
       <c r="J11" s="1">
-        <v>2358</v>
+        <v>2619</v>
       </c>
       <c r="K11" s="1">
-        <v>2333</v>
+        <v>2651</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>2177.6999999999998</v>
+      </c>
+      <c r="O11">
+        <f>MIN(B11:K11)</f>
+        <v>52</v>
+      </c>
+      <c r="P11">
+        <f>MAX(B11:K11)</f>
+        <v>2747</v>
+      </c>
+      <c r="Q11">
+        <f>_xlfn.STDEV.S(B11:K11)</f>
+        <v>972.17900157898453</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>1329</v>
+      </c>
+      <c r="C18">
+        <v>1933</v>
+      </c>
+      <c r="D18">
+        <v>32075</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1227</v>
+      </c>
+      <c r="C19">
+        <v>1764</v>
+      </c>
+      <c r="D19">
+        <v>31127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>1329</v>
+      </c>
+      <c r="C20">
+        <v>1933</v>
+      </c>
+      <c r="D20">
+        <v>32075</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>623</v>
+      </c>
+      <c r="C24">
+        <v>1876</v>
+      </c>
+      <c r="D24">
+        <v>15844</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>575</v>
+      </c>
+      <c r="C25">
+        <v>1737</v>
+      </c>
+      <c r="D25">
+        <v>15498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>623</v>
+      </c>
+      <c r="C26">
+        <v>1876</v>
+      </c>
+      <c r="D26">
+        <v>15844</v>
       </c>
     </row>
   </sheetData>
@@ -1449,17 +2689,602 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3FF913-89F3-0F4B-A979-2FC129B46998}">
-  <dimension ref="A1:K11"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6FB469-D3AE-2241-A03C-DCC70918E2E8}">
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>142</v>
+      </c>
+      <c r="C3" s="1">
+        <v>177</v>
+      </c>
+      <c r="D3" s="1">
+        <v>157</v>
+      </c>
+      <c r="E3" s="1">
+        <v>150</v>
+      </c>
+      <c r="F3" s="1">
+        <v>166</v>
+      </c>
+      <c r="G3" s="1">
+        <v>158</v>
+      </c>
+      <c r="H3" s="1">
+        <v>146</v>
+      </c>
+      <c r="I3" s="1">
+        <v>151</v>
+      </c>
+      <c r="J3" s="1">
+        <v>131</v>
+      </c>
+      <c r="K3" s="1">
+        <v>162</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>AVERAGE(B3:K3)</f>
+        <v>154</v>
+      </c>
+      <c r="O3">
+        <f>MIN(B3:K3)</f>
+        <v>131</v>
+      </c>
+      <c r="P3">
+        <f>MAX(B3:K3)</f>
+        <v>177</v>
+      </c>
+      <c r="Q3">
+        <f>_xlfn.STDEV.S(B3:K3)</f>
+        <v>13.012814197295423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>81</v>
+      </c>
+      <c r="C4" s="1">
+        <v>91</v>
+      </c>
+      <c r="D4" s="1">
+        <v>79</v>
+      </c>
+      <c r="E4" s="1">
+        <v>78</v>
+      </c>
+      <c r="F4" s="1">
+        <v>75</v>
+      </c>
+      <c r="G4" s="1">
+        <v>74</v>
+      </c>
+      <c r="H4" s="1">
+        <v>81</v>
+      </c>
+      <c r="I4" s="1">
+        <v>82</v>
+      </c>
+      <c r="J4" s="1">
+        <v>87</v>
+      </c>
+      <c r="K4" s="1">
+        <v>78</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N5" si="0">AVERAGE(B4:K4)</f>
+        <v>80.599999999999994</v>
+      </c>
+      <c r="O4">
+        <f>MIN(B4:K4)</f>
+        <v>74</v>
+      </c>
+      <c r="P4">
+        <f>MAX(B4:K4)</f>
+        <v>91</v>
+      </c>
+      <c r="Q4">
+        <f>_xlfn.STDEV.S(B4:K4)</f>
+        <v>5.1897334549409502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1">
+        <v>78</v>
+      </c>
+      <c r="D5" s="1">
+        <v>99</v>
+      </c>
+      <c r="E5" s="1">
+        <v>69</v>
+      </c>
+      <c r="F5" s="1">
+        <v>86</v>
+      </c>
+      <c r="G5" s="1">
+        <v>82</v>
+      </c>
+      <c r="H5" s="1">
+        <v>92</v>
+      </c>
+      <c r="I5" s="1">
+        <v>77</v>
+      </c>
+      <c r="J5" s="1">
+        <v>65</v>
+      </c>
+      <c r="K5" s="1">
+        <v>99</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>81.7</v>
+      </c>
+      <c r="O5">
+        <f>MIN(B5:K5)</f>
+        <v>65</v>
+      </c>
+      <c r="P5">
+        <f>MAX(B5:K5)</f>
+        <v>99</v>
+      </c>
+      <c r="Q5">
+        <f>_xlfn.STDEV.S(B5:K5)</f>
+        <v>12.184233892845139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1">
+        <v>9</v>
+      </c>
+      <c r="K8" s="1">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1">
+        <v>722</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2274</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2468</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2490</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2443</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2559</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2692</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2653</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2487</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>AVERAGE(B9:K9)</f>
+        <v>2084</v>
+      </c>
+      <c r="O9">
+        <f>MIN(B9:K9)</f>
+        <v>52</v>
+      </c>
+      <c r="P9">
+        <f>MAX(B9:K9)</f>
+        <v>2692</v>
+      </c>
+      <c r="Q9">
+        <f>_xlfn.STDEV.S(B9:K9)</f>
+        <v>915.4719487176485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
+        <v>958</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2330</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2410</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2112</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2048</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1811</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2140</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2006</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2102</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10:N11" si="1">AVERAGE(B10:K10)</f>
+        <v>1794.7</v>
+      </c>
+      <c r="O10">
+        <f>MIN(B10:K10)</f>
+        <v>30</v>
+      </c>
+      <c r="P10">
+        <f>MAX(B10:K10)</f>
+        <v>2410</v>
+      </c>
+      <c r="Q10">
+        <f>_xlfn.STDEV.S(B10:K10)</f>
+        <v>738.07498113523525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1">
+        <v>717</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1956</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2294</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2130</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2128</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2166</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2328</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2358</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2333</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>1846.4</v>
+      </c>
+      <c r="O11">
+        <f>MIN(B11:K11)</f>
+        <v>54</v>
+      </c>
+      <c r="P11">
+        <f>MAX(B11:K11)</f>
+        <v>2358</v>
+      </c>
+      <c r="Q11">
+        <f>_xlfn.STDEV.S(B11:K11)</f>
+        <v>795.32833192056933</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>1329</v>
+      </c>
+      <c r="C18">
+        <v>1933</v>
+      </c>
+      <c r="D18">
+        <v>32075</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1227</v>
+      </c>
+      <c r="C19">
+        <v>1732</v>
+      </c>
+      <c r="D19">
+        <v>30551</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>1329</v>
+      </c>
+      <c r="C20">
+        <v>1933</v>
+      </c>
+      <c r="D20">
+        <v>32075</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>623</v>
+      </c>
+      <c r="C24">
+        <v>1876</v>
+      </c>
+      <c r="D24">
+        <v>15844</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>575</v>
+      </c>
+      <c r="C25">
+        <v>1713</v>
+      </c>
+      <c r="D25">
+        <v>15210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>625</v>
+      </c>
+      <c r="C26">
+        <v>1876</v>
+      </c>
+      <c r="D26">
+        <v>15850</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3FF913-89F3-0F4B-A979-2FC129B46998}">
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1474,7 +3299,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1508,8 +3333,20 @@
       <c r="K2" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1543,8 +3380,27 @@
       <c r="K3" s="1">
         <v>17421</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>AVERAGE(B3:K3)</f>
+        <v>18093</v>
+      </c>
+      <c r="O3">
+        <f>MIN(B3:K3)</f>
+        <v>16305</v>
+      </c>
+      <c r="P3">
+        <f>MAX(B3:K3)</f>
+        <v>21442</v>
+      </c>
+      <c r="Q3">
+        <f>_xlfn.STDEV.S(B3:K3)</f>
+        <v>1535.2183340923641</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1578,8 +3434,27 @@
       <c r="K4" s="1">
         <v>15592</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N5" si="0">AVERAGE(B4:K4)</f>
+        <v>15098.8</v>
+      </c>
+      <c r="O4">
+        <f>MIN(B4:K4)</f>
+        <v>12133</v>
+      </c>
+      <c r="P4">
+        <f>MAX(B4:K4)</f>
+        <v>16288</v>
+      </c>
+      <c r="Q4">
+        <f>_xlfn.STDEV.S(B4:K4)</f>
+        <v>1278.158814684449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1613,8 +3488,27 @@
       <c r="K5" s="1">
         <v>15079</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>14061.8</v>
+      </c>
+      <c r="O5">
+        <f>MIN(B5:K5)</f>
+        <v>10712</v>
+      </c>
+      <c r="P5">
+        <f>MAX(B5:K5)</f>
+        <v>15521</v>
+      </c>
+      <c r="Q5">
+        <f>_xlfn.STDEV.S(B5:K5)</f>
+        <v>1494.8980492922476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1622,7 +3516,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1632,7 +3526,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1666,8 +3560,20 @@
       <c r="K8" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1701,8 +3607,27 @@
       <c r="K9" s="1">
         <v>6792</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>AVERAGE(B9:K9)</f>
+        <v>5942</v>
+      </c>
+      <c r="O9">
+        <f>MIN(B9:K9)</f>
+        <v>1078</v>
+      </c>
+      <c r="P9">
+        <f>MAX(B9:K9)</f>
+        <v>8561</v>
+      </c>
+      <c r="Q9">
+        <f>_xlfn.STDEV.S(B9:K9)</f>
+        <v>2202.840085990003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -1736,8 +3661,27 @@
       <c r="K10" s="1">
         <v>9571</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10:N11" si="1">AVERAGE(B10:K10)</f>
+        <v>7881.5</v>
+      </c>
+      <c r="O10">
+        <f>MIN(B10:K10)</f>
+        <v>1549</v>
+      </c>
+      <c r="P10">
+        <f>MAX(B10:K10)</f>
+        <v>9834</v>
+      </c>
+      <c r="Q10">
+        <f>_xlfn.STDEV.S(B10:K10)</f>
+        <v>2444.5958198078924</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -1770,6 +3714,140 @@
       </c>
       <c r="K11" s="1">
         <v>10208</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>8762.2999999999993</v>
+      </c>
+      <c r="O11">
+        <f>MIN(B11:K11)</f>
+        <v>1824</v>
+      </c>
+      <c r="P11">
+        <f>MAX(B11:K11)</f>
+        <v>10334</v>
+      </c>
+      <c r="Q11">
+        <f>_xlfn.STDEV.S(B11:K11)</f>
+        <v>2536.3763324869601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>1199</v>
+      </c>
+      <c r="C17">
+        <v>1290</v>
+      </c>
+      <c r="D17">
+        <v>20083</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>967</v>
+      </c>
+      <c r="C18">
+        <v>1116</v>
+      </c>
+      <c r="D18">
+        <v>19471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>1199</v>
+      </c>
+      <c r="C19">
+        <v>1290</v>
+      </c>
+      <c r="D19">
+        <v>20083</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>558</v>
+      </c>
+      <c r="C23">
+        <v>1247</v>
+      </c>
+      <c r="D23">
+        <v>9954</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>448</v>
+      </c>
+      <c r="C24">
+        <v>1097</v>
+      </c>
+      <c r="D24">
+        <v>9654</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>558</v>
+      </c>
+      <c r="C25">
+        <v>1247</v>
+      </c>
+      <c r="D25">
+        <v>9958</v>
       </c>
     </row>
   </sheetData>

--- a/csv/sample_valid_bitstrings.xlsx
+++ b/csv/sample_valid_bitstrings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanhsuanlin/Desktop/sqd/meeting-notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5E1604-A130-C240-8C4A-8BDEB60B0BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795475A6-A7EF-4942-8EC4-E9EB2AB8FB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36220" yWindow="-1800" windowWidth="30500" windowHeight="21240" xr2:uid="{FEE29CD4-75DF-5244-B173-61F242A3C75A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20260" xr2:uid="{FEE29CD4-75DF-5244-B173-61F242A3C75A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet8" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="N2_cc-PVDZ-2.4" sheetId="4" r:id="rId5"/>
     <sheet name="fe2s2" sheetId="1" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -175,11 +175,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,33 +517,35 @@
   <dimension ref="A7:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -561,10 +563,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C9">
@@ -576,18 +578,18 @@
       <c r="E9">
         <v>13212</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <f>'N2_6-31G-1.2'!N3</f>
         <v>62594.3</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <f>'N2_6-31G-1.2'!Q3</f>
         <v>3088.0939842491121</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10">
@@ -599,18 +601,18 @@
       <c r="E10">
         <v>12675</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <f>'N2_6-31G-1.2'!N4</f>
         <v>25009</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <f>'N2_6-31G-1.2'!Q4</f>
         <v>418.82374972455102</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C11">
@@ -622,20 +624,20 @@
       <c r="E11">
         <v>13212</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <f>'N2_6-31G-1.2'!N5</f>
         <v>30563.5</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <f>'N2_6-31G-1.2'!Q5</f>
         <v>157.14766587158999</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12">
@@ -647,18 +649,18 @@
       <c r="E12">
         <v>13212</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <f>'N2_6-31G-2.4'!N3</f>
         <v>67881.600000000006</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <f>'N2_6-31G-2.4'!Q3</f>
         <v>8120.3260361474095</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C13">
@@ -670,18 +672,18 @@
       <c r="E13">
         <v>12747</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <f>'N2_6-31G-2.4'!N4</f>
         <v>24977.1</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4">
         <f>'N2_6-31G-2.4'!Q4</f>
         <v>406.63044920692084</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C14">
@@ -693,20 +695,20 @@
       <c r="E14">
         <v>13212</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <f>'N2_6-31G-2.4'!N5</f>
         <v>33022.400000000001</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="4">
         <f>'N2_6-31G-2.4'!Q5</f>
         <v>566.06874337152931</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C15">
@@ -718,18 +720,18 @@
       <c r="E15">
         <v>32075</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <f>'N2_cc-PVDZ-1.2'!N3</f>
         <v>154</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="4">
         <f>'N2_cc-PVDZ-1.2'!Q3</f>
         <v>13.012814197295423</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C16">
@@ -741,18 +743,18 @@
       <c r="E16">
         <v>31127</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <f>'N2_cc-PVDZ-1.2'!N4</f>
         <v>61.6</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="4">
         <f>'N2_cc-PVDZ-1.2'!Q4</f>
         <v>6.7856056799997306</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C17">
@@ -764,20 +766,20 @@
       <c r="E17">
         <v>32075</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <f>'N2_cc-PVDZ-1.2'!N5</f>
         <v>81.5</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="4">
         <f>'N2_cc-PVDZ-1.2'!Q5</f>
         <v>12.429802894656053</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18">
@@ -789,18 +791,18 @@
       <c r="E18">
         <v>32075</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <f>'N2_cc-PVDZ-2.4'!N3</f>
-        <v>154</v>
-      </c>
-      <c r="G18">
+        <v>159.80000000000001</v>
+      </c>
+      <c r="G18" s="4">
         <f>'N2_cc-PVDZ-2.4'!Q3</f>
-        <v>13.012814197295423</v>
+        <v>29.947361226733236</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C19">
@@ -812,18 +814,18 @@
       <c r="E19">
         <v>30551</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <f>'N2_cc-PVDZ-2.4'!N4</f>
         <v>80.599999999999994</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="4">
         <f>'N2_cc-PVDZ-2.4'!Q4</f>
         <v>5.1897334549409502</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C20">
@@ -835,20 +837,20 @@
       <c r="E20">
         <v>32075</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <f>'N2_cc-PVDZ-2.4'!N5</f>
-        <v>81.7</v>
-      </c>
-      <c r="G20">
+        <v>101.5</v>
+      </c>
+      <c r="G20" s="4">
         <f>'N2_cc-PVDZ-2.4'!Q5</f>
-        <v>12.184233892845139</v>
+        <v>15.378556499229699</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C21">
@@ -860,18 +862,18 @@
       <c r="E21">
         <v>20083</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <f>fe2s2!N3</f>
         <v>18093</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <f>fe2s2!Q3</f>
         <v>1535.2183340923641</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C22">
@@ -883,18 +885,18 @@
       <c r="E22">
         <v>19471</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <f>fe2s2!N4</f>
         <v>15098.8</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="4">
         <f>fe2s2!Q4</f>
         <v>1278.158814684449</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C23">
@@ -906,25 +908,25 @@
       <c r="E23">
         <v>20083</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <f>fe2s2!N5</f>
         <v>14061.8</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="4">
         <f>fe2s2!Q5</f>
         <v>1494.8980492922476</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -934,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA42ED78-9456-F54A-A97D-593A8F76F400}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D19"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -944,10 +946,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1">
@@ -969,7 +971,7 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>2</v>
       </c>
       <c r="D2" s="1">
@@ -1010,7 +1012,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
@@ -1043,7 +1045,7 @@
       <c r="K3" s="1">
         <v>63644</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N3">
@@ -1064,7 +1066,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
@@ -1097,7 +1099,7 @@
       <c r="K4" s="1">
         <v>24960</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N4">
@@ -1118,7 +1120,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1">
@@ -1151,7 +1153,7 @@
       <c r="K5" s="1">
         <v>33048</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N5">
@@ -1176,8 +1178,6 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1186,8 +1186,6 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1196,7 +1194,7 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="1">
@@ -1237,7 +1235,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1">
@@ -1270,7 +1268,7 @@
       <c r="K9" s="1">
         <v>55621</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N9">
@@ -1291,7 +1289,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1">
@@ -1324,7 +1322,7 @@
       <c r="K10" s="1">
         <v>31164</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N10">
@@ -1345,7 +1343,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1">
@@ -1378,7 +1376,7 @@
       <c r="K11" s="1">
         <v>32976</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N11">
@@ -1413,7 +1411,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B17">
@@ -1427,7 +1425,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B18">
@@ -1441,7 +1439,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B19">
@@ -1472,7 +1470,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B23">
@@ -1486,7 +1484,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B24">
@@ -1500,7 +1498,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B25">
@@ -1522,17 +1520,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67BCA20-3D99-3940-8C9C-28E3EBC4D82E}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1">
@@ -1554,7 +1552,7 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>2</v>
       </c>
       <c r="D2" s="1">
@@ -1595,7 +1593,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
@@ -1628,7 +1626,7 @@
       <c r="K3" s="1">
         <v>63057</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N3">
@@ -1649,7 +1647,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
@@ -1682,7 +1680,7 @@
       <c r="K4" s="1">
         <v>24907</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N4">
@@ -1703,7 +1701,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1">
@@ -1736,7 +1734,7 @@
       <c r="K5" s="1">
         <v>30476</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N5">
@@ -1761,8 +1759,6 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1771,8 +1767,6 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1781,7 +1775,7 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="1">
@@ -1822,7 +1816,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1">
@@ -1855,7 +1849,7 @@
       <c r="K9" s="1">
         <v>24253</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N9">
@@ -1876,7 +1870,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1">
@@ -1909,7 +1903,7 @@
       <c r="K10" s="1">
         <v>19042</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N10">
@@ -1930,7 +1924,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1">
@@ -1963,7 +1957,7 @@
       <c r="K11" s="1">
         <v>23299</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N11">
@@ -1998,7 +1992,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B18">
@@ -2012,7 +2006,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B19">
@@ -2026,7 +2020,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B20">
@@ -2057,7 +2051,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B24">
@@ -2071,7 +2065,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B25">
@@ -2085,7 +2079,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B26">
@@ -2108,16 +2102,16 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:D20"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1">
@@ -2139,7 +2133,7 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>2</v>
       </c>
       <c r="D2" s="1">
@@ -2180,7 +2174,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
@@ -2213,7 +2207,7 @@
       <c r="K3" s="1">
         <v>162</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N3">
@@ -2234,7 +2228,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
@@ -2268,7 +2262,7 @@
         <v>68</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N4">
@@ -2289,7 +2283,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1">
@@ -2322,11 +2316,11 @@
       <c r="K5" s="1">
         <v>99</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N4:N5" si="0">AVERAGE(B5:K5)</f>
+        <f t="shared" ref="N5" si="0">AVERAGE(B5:K5)</f>
         <v>81.5</v>
       </c>
       <c r="O5">
@@ -2347,8 +2341,6 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -2357,8 +2349,6 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -2367,7 +2357,7 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="1">
@@ -2408,7 +2398,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1">
@@ -2441,7 +2431,7 @@
       <c r="K9" s="1">
         <v>2303</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N9">
@@ -2462,7 +2452,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1">
@@ -2495,7 +2485,7 @@
       <c r="K10" s="1">
         <v>2075</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N10">
@@ -2516,7 +2506,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1">
@@ -2549,7 +2539,7 @@
       <c r="K11" s="1">
         <v>2651</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N11">
@@ -2584,7 +2574,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B18">
@@ -2598,7 +2588,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B19">
@@ -2612,7 +2602,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B20">
@@ -2643,7 +2633,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B24">
@@ -2657,7 +2647,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B25">
@@ -2671,7 +2661,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B26">
@@ -2694,16 +2684,16 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:D20"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1">
@@ -2725,7 +2715,7 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>2</v>
       </c>
       <c r="D2" s="1">
@@ -2766,61 +2756,61 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C3" s="1">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="D3" s="1">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E3" s="1">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F3" s="1">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="G3" s="1">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H3" s="1">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I3" s="1">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="J3" s="1">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="K3" s="1">
-        <v>162</v>
-      </c>
-      <c r="M3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N3">
         <f>AVERAGE(B3:K3)</f>
-        <v>154</v>
+        <v>159.80000000000001</v>
       </c>
       <c r="O3">
         <f>MIN(B3:K3)</f>
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="P3">
         <f>MAX(B3:K3)</f>
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="Q3">
         <f>_xlfn.STDEV.S(B3:K3)</f>
-        <v>13.012814197295423</v>
+        <v>29.947361226733236</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
@@ -2853,7 +2843,7 @@
       <c r="K4" s="1">
         <v>78</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N4">
@@ -2874,57 +2864,57 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F5" s="1">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="G5" s="1">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="H5" s="1">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="I5" s="1">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="J5" s="1">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="K5" s="1">
-        <v>99</v>
-      </c>
-      <c r="M5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>81.7</v>
+        <v>101.5</v>
       </c>
       <c r="O5">
         <f>MIN(B5:K5)</f>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="P5">
         <f>MAX(B5:K5)</f>
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="Q5">
         <f>_xlfn.STDEV.S(B5:K5)</f>
-        <v>12.184233892845139</v>
+        <v>15.378556499229699</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -2932,8 +2922,6 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -2942,8 +2930,6 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -2952,7 +2938,7 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="1">
@@ -2993,7 +2979,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1">
@@ -3026,7 +3012,7 @@
       <c r="K9" s="1">
         <v>2487</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N9">
@@ -3047,7 +3033,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1">
@@ -3080,7 +3066,7 @@
       <c r="K10" s="1">
         <v>2102</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N10">
@@ -3101,7 +3087,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1">
@@ -3134,7 +3120,7 @@
       <c r="K11" s="1">
         <v>2333</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N11">
@@ -3169,7 +3155,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B18">
@@ -3183,7 +3169,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B19">
@@ -3197,7 +3183,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B20">
@@ -3228,7 +3214,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B24">
@@ -3242,7 +3228,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B25">
@@ -3256,7 +3242,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B26">
@@ -3285,10 +3271,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="2"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3306,7 +3292,7 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>2</v>
       </c>
       <c r="D2" s="1">
@@ -3347,7 +3333,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
@@ -3380,7 +3366,7 @@
       <c r="K3" s="1">
         <v>17421</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N3">
@@ -3401,7 +3387,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
@@ -3434,7 +3420,7 @@
       <c r="K4" s="1">
         <v>15592</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N4">
@@ -3455,7 +3441,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1">
@@ -3488,7 +3474,7 @@
       <c r="K5" s="1">
         <v>15079</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N5">
@@ -3513,8 +3499,6 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -3523,8 +3507,6 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -3533,7 +3515,7 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="1">
@@ -3574,7 +3556,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1">
@@ -3607,7 +3589,7 @@
       <c r="K9" s="1">
         <v>6792</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N9">
@@ -3628,7 +3610,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1">
@@ -3661,7 +3643,7 @@
       <c r="K10" s="1">
         <v>9571</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N10">
@@ -3682,7 +3664,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1">
@@ -3715,7 +3697,7 @@
       <c r="K11" s="1">
         <v>10208</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N11">
@@ -3750,7 +3732,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B17">
@@ -3764,7 +3746,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B18">
@@ -3778,7 +3760,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B19">
@@ -3809,7 +3791,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B23">
@@ -3823,7 +3805,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B24">
@@ -3837,7 +3819,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B25">
